--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,8 +1101,8 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" ref="D2:D21" si="0">$D$24/$A$21</f>
+        <v>1.35</v>
       </c>
       <c r="E2" s="1">
         <v>0.9</v>
@@ -1114,8 +1114,7 @@
         <v>38</v>
       </c>
       <c r="N2" s="2">
-        <f>N5/K3</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1129,8 +1128,8 @@
         <v>30</v>
       </c>
       <c r="D3" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E3" s="1">
         <f>VLOOKUP(B3,List!$A$2:$E$27,3,FALSE)</f>
@@ -1143,8 +1142,7 @@
         <v>38</v>
       </c>
       <c r="N3" s="2">
-        <f>N5/K3</f>
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1158,8 +1156,8 @@
         <v>34</v>
       </c>
       <c r="D4" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1176,15 +1174,16 @@
         <v>30</v>
       </c>
       <c r="D5" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E5" s="1">
         <f>VLOOKUP(B5,List!$A$2:$E$27,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="N5" s="1">
-        <v>3</v>
+        <f>N2+N3</f>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1198,8 +1197,8 @@
         <v>34</v>
       </c>
       <c r="D6" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E6" s="1">
         <v>0.9</v>
@@ -1216,8 +1215,8 @@
         <v>30</v>
       </c>
       <c r="D7" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E7" s="1">
         <f>VLOOKUP(B7,List!$A$2:$E$27,3,FALSE)</f>
@@ -1235,8 +1234,8 @@
         <v>34</v>
       </c>
       <c r="D8" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
@@ -1253,8 +1252,8 @@
         <v>30</v>
       </c>
       <c r="D9" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E9" s="1">
         <f>VLOOKUP(B9,List!$A$2:$E$27,3,FALSE)</f>
@@ -1272,8 +1271,8 @@
         <v>34</v>
       </c>
       <c r="D10" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E10" s="1">
         <v>0.9</v>
@@ -1290,8 +1289,8 @@
         <v>30</v>
       </c>
       <c r="D11" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E11" s="1">
         <f>VLOOKUP(B11,List!$A$2:$E$27,3,FALSE)</f>
@@ -1309,8 +1308,8 @@
         <v>34</v>
       </c>
       <c r="D12" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
@@ -1327,8 +1326,8 @@
         <v>30</v>
       </c>
       <c r="D13" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E13" s="1">
         <f>VLOOKUP(B13,List!$A$2:$E$27,3,FALSE)</f>
@@ -1346,8 +1345,8 @@
         <v>34</v>
       </c>
       <c r="D14" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E14" s="1">
         <v>0.9</v>
@@ -1364,8 +1363,8 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E15" s="1">
         <f>VLOOKUP(B15,List!$A$2:$E$27,3,FALSE)</f>
@@ -1383,8 +1382,8 @@
         <v>34</v>
       </c>
       <c r="D16" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E16" s="1">
         <v>0.9</v>
@@ -1401,8 +1400,8 @@
         <v>30</v>
       </c>
       <c r="D17" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E17" s="1">
         <f>VLOOKUP(B17,List!$A$2:$E$27,3,FALSE)</f>
@@ -1420,8 +1419,8 @@
         <v>35</v>
       </c>
       <c r="D18" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E18" s="1">
         <v>0.9</v>
@@ -1438,8 +1437,8 @@
         <v>35</v>
       </c>
       <c r="D19" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E19" s="1">
         <v>0.9</v>
@@ -1456,8 +1455,8 @@
         <v>36</v>
       </c>
       <c r="D20" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1474,8 +1473,8 @@
         <v>36</v>
       </c>
       <c r="D21" s="2">
-        <f>$D$24/$A$21</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -1494,15 +1493,17 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="2">
-        <f>N5*10</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E22)</f>
-        <v>26.200000000000003</v>
+        <v>29.200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D21" si="0">$D$24/$A$21</f>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E2" s="1">
         <v>0.9</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="1">
         <f>VLOOKUP(B3,List!$A$2:$E$27,3,FALSE)</f>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1175,15 +1175,14 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="1">
         <f>VLOOKUP(B5,List!$A$2:$E$27,3,FALSE)</f>
         <v>0.9</v>
       </c>
       <c r="N5" s="1">
-        <f>N2+N3</f>
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1198,7 +1197,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="1">
         <v>0.9</v>
@@ -1216,7 +1215,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="1">
         <f>VLOOKUP(B7,List!$A$2:$E$27,3,FALSE)</f>
@@ -1235,7 +1234,7 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
@@ -1253,7 +1252,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="1">
         <f>VLOOKUP(B9,List!$A$2:$E$27,3,FALSE)</f>
@@ -1272,7 +1271,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="1">
         <v>0.9</v>
@@ -1290,7 +1289,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="1">
         <f>VLOOKUP(B11,List!$A$2:$E$27,3,FALSE)</f>
@@ -1309,7 +1308,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
@@ -1327,7 +1326,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="1">
         <f>VLOOKUP(B13,List!$A$2:$E$27,3,FALSE)</f>
@@ -1346,7 +1345,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.9</v>
@@ -1364,7 +1363,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="1">
         <f>VLOOKUP(B15,List!$A$2:$E$27,3,FALSE)</f>
@@ -1383,7 +1382,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="1">
         <v>0.9</v>
@@ -1401,7 +1400,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E17" s="1">
         <f>VLOOKUP(B17,List!$A$2:$E$27,3,FALSE)</f>
@@ -1420,7 +1419,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="1">
         <v>0.9</v>
@@ -1438,7 +1437,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="1">
         <v>0.9</v>
@@ -1456,7 +1455,7 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1474,7 +1473,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -1494,16 +1493,16 @@
         <v>41</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1">
         <f>SUM(E2:E22)</f>
-        <v>29.200000000000003</v>
+        <v>31.200000000000003</v>
       </c>
     </row>
   </sheetData>
